--- a/Supplementary_data/Supporting_Information_Table_S1.xlsx
+++ b/Supplementary_data/Supporting_Information_Table_S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krg114/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krg114/Documents/GWAS_ms_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B8C5A6-3E4B-9742-A2E8-1C1E513313EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7C512-3C50-EA46-8EE8-9CA14C6D3CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Trial</t>
   </si>
@@ -73,12 +60,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Spring flushing</t>
-  </si>
-  <si>
-    <t>Autumn senescense</t>
-  </si>
-  <si>
     <t>Samples used in GWAS study</t>
   </si>
   <si>
@@ -97,9 +78,6 @@
     <t>Fussi et al., 2015</t>
   </si>
   <si>
-    <t>McKinney et al., 2010</t>
-  </si>
-  <si>
     <t>Kirisits and Freinschlag, 2012</t>
   </si>
   <si>
@@ -118,9 +96,6 @@
     <t>Kjær et al., 2012</t>
   </si>
   <si>
-    <t>23-24/-2019, 3/5-2019</t>
-  </si>
-  <si>
     <t>20-21/9-2019</t>
   </si>
   <si>
@@ -151,9 +126,6 @@
     <t>4-5/5-2020, 19/5-2020</t>
   </si>
   <si>
-    <t>09-07-2019 and 8-9/7-2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kusel </t>
   </si>
   <si>
@@ -166,13 +138,31 @@
     <t>Silkeborg</t>
   </si>
   <si>
-    <t>Ash dieback scoring and sampling</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
     <t>11-13/6-2019</t>
+  </si>
+  <si>
+    <t>09-07-2019, 8-9/7-2020</t>
+  </si>
+  <si>
+    <t>23-24/4-2019, 3/5-2019</t>
+  </si>
+  <si>
+    <t>McKinney et al., 2011</t>
+  </si>
+  <si>
+    <t>Sampling and assessment of European ash trials</t>
+  </si>
+  <si>
+    <t>Spring bud burst</t>
+  </si>
+  <si>
+    <t>Ash dieback crown damage scoring and sampling</t>
+  </si>
+  <si>
+    <t>Autumn status</t>
   </si>
 </sst>
 </file>
@@ -190,13 +180,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -204,6 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -238,16 +227,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -554,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,291 +563,335 @@
     <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5">
-        <v>52</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="7">
-        <v>43752</v>
+        <v>28</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="5">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11">
+        <v>43752</v>
+      </c>
+      <c r="F4" s="5">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11">
         <v>43647</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="11">
         <v>43727</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="5">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11">
+        <v>43957</v>
+      </c>
+      <c r="D6" s="11">
+        <v>43628</v>
+      </c>
+      <c r="E6" s="11">
+        <v>43752</v>
+      </c>
+      <c r="F6" s="5">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7">
-        <v>43957</v>
-      </c>
-      <c r="D5" s="7">
-        <v>43628</v>
-      </c>
-      <c r="E5" s="7">
-        <v>43752</v>
-      </c>
-      <c r="F5" s="5">
-        <v>16</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7">
-        <v>44098</v>
-      </c>
-      <c r="F6" s="5">
-        <v>86</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>43588</v>
-      </c>
-      <c r="D7" s="7">
-        <v>43633</v>
-      </c>
-      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="D7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="11">
+        <v>44098</v>
+      </c>
       <c r="F7" s="5">
+        <v>86</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43588</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43633</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="11">
         <v>43586</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="11">
         <v>43658</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="11">
         <v>43753</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="5">
         <v>95</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5">
         <v>47</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7">
-        <v>43742</v>
-      </c>
-      <c r="F10" s="5">
-        <v>48</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="11">
+        <v>43742</v>
+      </c>
+      <c r="F11" s="5">
+        <v>48</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11">
         <v>43634</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="11">
         <v>43742</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>44</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11">
         <v>43599</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="11">
         <v>43643</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="11">
         <v>43742</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="5">
         <v>20</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Supplementary_data/Supporting_Information_Table_S1.xlsx
+++ b/Supplementary_data/Supporting_Information_Table_S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krg114/Documents/GWAS_ms_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7C512-3C50-EA46-8EE8-9CA14C6D3CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9235543D-8439-0145-99E0-358942626638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,24 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>Trial</t>
   </si>
@@ -36,12 +49,6 @@
     <t>Feldkirchen</t>
   </si>
   <si>
-    <t>Gl Snogeholm</t>
-  </si>
-  <si>
-    <t>Ny Snogeholm</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -57,12 +64,6 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Samples used in GWAS study</t>
-  </si>
-  <si>
     <t>Kilmacurragh</t>
   </si>
   <si>
@@ -72,30 +73,9 @@
     <t>Šakiai</t>
   </si>
   <si>
-    <t>Enderle et al., 2015</t>
-  </si>
-  <si>
-    <t>Fussi et al., 2015</t>
-  </si>
-  <si>
-    <t>Kirisits and Freinschlag, 2012</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Stener, 2013</t>
-  </si>
-  <si>
-    <t>Pliura et al., 2014</t>
-  </si>
-  <si>
     <t>25/4-2019, 7/5-2019</t>
   </si>
   <si>
-    <t>Kjær et al., 2012</t>
-  </si>
-  <si>
     <t>20-21/9-2019</t>
   </si>
   <si>
@@ -150,26 +130,249 @@
     <t>23-24/4-2019, 3/5-2019</t>
   </si>
   <si>
-    <t>McKinney et al., 2011</t>
-  </si>
-  <si>
-    <t>Sampling and assessment of European ash trials</t>
-  </si>
-  <si>
     <t>Spring bud burst</t>
   </si>
   <si>
     <t>Ash dieback crown damage scoring and sampling</t>
   </si>
   <si>
-    <t>Autumn status</t>
+    <t>Autumn phenology</t>
+  </si>
+  <si>
+    <t>Kirisits, Thomas, and Christian Freinschlag. "Ash dieback caused by Hymenoscyphus pseudoalbidus in a seed plantation of Fraxinus excelsior in Austria." Journal of Agricultural Extension and Rural Development 4.9 (2012): 184-191.</t>
+  </si>
+  <si>
+    <t>McMcKinney, L. V., et al. "Presence of natural genetic resistance in Fraxinus excelsior (Oleraceae) to Chalara fraxinea (Ascomycota): an emerging infectious disease." Heredity 106.5 (2011): 788-797.Kinney et al., 2011</t>
+  </si>
+  <si>
+    <t>Reference (trial information)</t>
+  </si>
+  <si>
+    <r>
+      <t>Pliūra, Alfas, et al. "Dynamics of genetic resistance to Hymenoscyphus pseudoalbidus in juvenile Fraxinus excelsior clones." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Baltic Forestry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 20.1 (2014): 10-27.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stener, Lars-Göran. "Clonal differences in susceptibility to the dieback of Fraxinus excelsior in southern Sweden." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scandinavian Journal of Forest Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 28.3 (2013): 205-216.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kjær, Erik Dahl, et al. "Adaptive potential of ash (Fraxinus excelsior) populations against the novel emerging pathogen Hymenoscyphus pseudoalbidus." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evolutionary applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 5.3 (2012): 219-228.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fussi et al., "Ansätze zur Resistenzzüchtung gegenüber Eschentriebsterben" Waldschultz Eschentriebsterben. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AFZ-DerWald</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8 (2016): 18-21.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enderle, Rasmus, et al. "Susceptibility of autochthonous German Fraxinus excelsior clones to Hymenoscyphus pseudoalbidus is genetically determined." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annals of Forest Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 72 (2015): 183-193.</t>
+    </r>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>No sequenced genotypes</t>
+  </si>
+  <si>
+    <t>Average Number of assessed trees per genotype  (Range)</t>
+  </si>
+  <si>
+    <t>Number of genotypes</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz, Western Germany</t>
+  </si>
+  <si>
+    <t>Bayern and Baden-Württemberg, Southern Germany</t>
+  </si>
+  <si>
+    <t>Origin of genotypes</t>
+  </si>
+  <si>
+    <t>Across Ireland</t>
+  </si>
+  <si>
+    <t>Across Denmark</t>
+  </si>
+  <si>
+    <t>Western Denmark</t>
+  </si>
+  <si>
+    <t>Information on materials, sampling and assessment of European ash trials</t>
+  </si>
+  <si>
+    <t>Götaland, Southern Sweden</t>
+  </si>
+  <si>
+    <t>Central Lithuania</t>
+  </si>
+  <si>
+    <t>8 (4-11)</t>
+  </si>
+  <si>
+    <t>Snogeholm L</t>
+  </si>
+  <si>
+    <t>Snogeholm S</t>
+  </si>
+  <si>
+    <t>7 (2-10)</t>
+  </si>
+  <si>
+    <t>4 (2-4)</t>
+  </si>
+  <si>
+    <t>6 (1-14)</t>
+  </si>
+  <si>
+    <t>8 (2-17)</t>
+  </si>
+  <si>
+    <t>4 (1-12)</t>
+  </si>
+  <si>
+    <t>8 (2-12)</t>
+  </si>
+  <si>
+    <t>7 (1-21)</t>
+  </si>
+  <si>
+    <t>Upper Austria, Northern Alpine foreland and Bohemian Massif</t>
+  </si>
+  <si>
+    <t>96*</t>
+  </si>
+  <si>
+    <t>* half-sib families</t>
+  </si>
+  <si>
+    <t>2 (2-4)</t>
+  </si>
+  <si>
+    <t>6 (1-15)</t>
+  </si>
+  <si>
+    <t>7 (1-19)**</t>
+  </si>
+  <si>
+    <t>** 7 trees on average per half-sib family with a range of 1-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +400,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,6 +471,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -551,331 +784,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="53.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D3" s="5">
+        <v>76</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5">
+        <v>52</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="11">
+        <v>43752</v>
+      </c>
+      <c r="I4" s="5">
+        <v>28</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="G5" s="11">
+        <v>43647</v>
+      </c>
+      <c r="H5" s="11">
+        <v>43727</v>
+      </c>
+      <c r="I5" s="5">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>85</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="11">
+        <v>43957</v>
+      </c>
+      <c r="G6" s="11">
+        <v>43628</v>
+      </c>
+      <c r="H6" s="11">
+        <v>43752</v>
+      </c>
+      <c r="I6" s="5">
+        <v>16</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11">
+        <v>44098</v>
+      </c>
+      <c r="I7" s="5">
+        <v>86</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="11">
-        <v>43752</v>
-      </c>
-      <c r="F4" s="5">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11">
-        <v>43647</v>
-      </c>
-      <c r="E5" s="11">
-        <v>43727</v>
-      </c>
-      <c r="F5" s="5">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="11">
-        <v>43957</v>
-      </c>
-      <c r="D6" s="11">
-        <v>43628</v>
-      </c>
-      <c r="E6" s="11">
-        <v>43752</v>
-      </c>
-      <c r="F6" s="5">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="11">
-        <v>44098</v>
-      </c>
-      <c r="F7" s="5">
-        <v>86</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="11">
         <v>43588</v>
       </c>
-      <c r="D8" s="11">
+      <c r="G8" s="11">
         <v>43633</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="H8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5">
         <v>23</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5">
+        <v>220</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="11">
         <v>43586</v>
       </c>
-      <c r="D9" s="11">
+      <c r="G9" s="11">
         <v>43658</v>
       </c>
-      <c r="E9" s="11">
+      <c r="H9" s="11">
         <v>43753</v>
       </c>
-      <c r="F9" s="5">
+      <c r="I9" s="5">
         <v>95</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="5">
         <v>47</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="11">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5">
+        <v>95</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="11">
         <v>43742</v>
       </c>
-      <c r="F11" s="5">
+      <c r="I11" s="5">
         <v>48</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="J11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="5">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="11">
+        <v>43634</v>
+      </c>
+      <c r="H12" s="11">
+        <v>43742</v>
+      </c>
+      <c r="I12" s="5">
+        <v>44</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="11">
+        <v>43599</v>
+      </c>
+      <c r="G13" s="11">
+        <v>43643</v>
+      </c>
+      <c r="H13" s="11">
+        <v>43742</v>
+      </c>
+      <c r="I13" s="5">
         <v>20</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="11">
-        <v>43634</v>
-      </c>
-      <c r="E12" s="11">
-        <v>43742</v>
-      </c>
-      <c r="F12" s="5">
-        <v>44</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11">
-        <v>43599</v>
-      </c>
-      <c r="D13" s="11">
-        <v>43643</v>
-      </c>
-      <c r="E13" s="11">
-        <v>43742</v>
-      </c>
-      <c r="F13" s="5">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J13" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
@@ -917,4 +1277,10 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6a2630e2-1ac5-455e-8217-0156b1936a76}" enabled="1" method="Standard" siteId="{a3927f91-cda1-4696-af89-8c9f1ceffa91}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Supplementary_data/Supporting_Information_Table_S1.xlsx
+++ b/Supplementary_data/Supporting_Information_Table_S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krg114/Documents/GWAS_ms_documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krg114/Documents/GWAS_ms_documents/Submission documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9235543D-8439-0145-99E0-358942626638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE27F9D-96C9-3945-9182-3CC431059EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>Trial</t>
   </si>
@@ -227,32 +227,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Fussi et al., "Ansätze zur Resistenzzüchtung gegenüber Eschentriebsterben" Waldschultz Eschentriebsterben. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AFZ-DerWald</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 8 (2016): 18-21.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Enderle, Rasmus, et al. "Susceptibility of autochthonous German Fraxinus excelsior clones to Hymenoscyphus pseudoalbidus is genetically determined." </t>
     </r>
     <r>
@@ -284,9 +258,6 @@
     <t>No sequenced genotypes</t>
   </si>
   <si>
-    <t>Average Number of assessed trees per genotype  (Range)</t>
-  </si>
-  <si>
     <t>Number of genotypes</t>
   </si>
   <si>
@@ -317,36 +288,12 @@
     <t>Central Lithuania</t>
   </si>
   <si>
-    <t>8 (4-11)</t>
-  </si>
-  <si>
     <t>Snogeholm L</t>
   </si>
   <si>
     <t>Snogeholm S</t>
   </si>
   <si>
-    <t>7 (2-10)</t>
-  </si>
-  <si>
-    <t>4 (2-4)</t>
-  </si>
-  <si>
-    <t>6 (1-14)</t>
-  </si>
-  <si>
-    <t>8 (2-17)</t>
-  </si>
-  <si>
-    <t>4 (1-12)</t>
-  </si>
-  <si>
-    <t>8 (2-12)</t>
-  </si>
-  <si>
-    <t>7 (1-21)</t>
-  </si>
-  <si>
     <t>Upper Austria, Northern Alpine foreland and Bohemian Massif</t>
   </si>
   <si>
@@ -359,13 +306,108 @@
     <t>2 (2-4)</t>
   </si>
   <si>
-    <t>6 (1-15)</t>
-  </si>
-  <si>
-    <t>7 (1-19)**</t>
-  </si>
-  <si>
     <t>** 7 trees on average per half-sib family with a range of 1-19</t>
+  </si>
+  <si>
+    <t>Establishment year</t>
+  </si>
+  <si>
+    <t>1991/1993</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fussi et al., "Ansätze zur Resistenzzüchtung gegenüber Eschentriebsterben" Waldschultz Eschentriebsterben. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AFZ-DerWald</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8 (2016): 18-21. Seidel, Hannes; Seho, Muhidin; Fussi, Barbara (under revision): Hope for ash conservation and propagation - single individuals can be highly resistant to an invasive pathogen. Journal of Plant Diseases and Protection</t>
+    </r>
+  </si>
+  <si>
+    <t>7.2 (1-21)</t>
+  </si>
+  <si>
+    <t>8.1 (4-11)</t>
+  </si>
+  <si>
+    <t>6.8 (2-10)</t>
+  </si>
+  <si>
+    <t>6.3 (1-14)</t>
+  </si>
+  <si>
+    <t>6.7 (1-19)**</t>
+  </si>
+  <si>
+    <t>8.6 (1-15)</t>
+  </si>
+  <si>
+    <t>7.5 (2-17)</t>
+  </si>
+  <si>
+    <t>3.8 (2-4)</t>
+  </si>
+  <si>
+    <t>3.9 (1-12)</t>
+  </si>
+  <si>
+    <t>8.4 (2-12)</t>
+  </si>
+  <si>
+    <t>Average number of assessed trees per sequenced genotype (range)</t>
+  </si>
+  <si>
+    <t>Average number of assessed trees per genotype (range)</t>
+  </si>
+  <si>
+    <t>6.3 (3-10)</t>
+  </si>
+  <si>
+    <t>7.2 (2-14)</t>
+  </si>
+  <si>
+    <t>2.4 (2-4)</t>
+  </si>
+  <si>
+    <t>3.5 (2-4)</t>
+  </si>
+  <si>
+    <t>6.7 (1-19)</t>
+  </si>
+  <si>
+    <t>9.5 (3-12)</t>
+  </si>
+  <si>
+    <t>4.7 (1-12)</t>
+  </si>
+  <si>
+    <t>12.3 (3-21)</t>
+  </si>
+  <si>
+    <t>7.8 (2-17)</t>
+  </si>
+  <si>
+    <t>9.8 (1-15)</t>
   </si>
 </sst>
 </file>
@@ -784,40 +826,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="52.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53.5" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="52.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="8" width="53.5" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,31 +868,37 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -857,63 +906,75 @@
         <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="5">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5">
         <v>76</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="5">
+        <v>52</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5">
-        <v>52</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="5">
+        <v>1992</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5">
         <v>51</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="F4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="5">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="11">
+      <c r="K4" s="11">
         <v>43752</v>
       </c>
-      <c r="I4" s="5">
-        <v>28</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -921,321 +982,383 @@
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="5">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5">
         <v>35</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="F5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="5">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11">
+      <c r="J5" s="11">
         <v>43647</v>
       </c>
-      <c r="H5" s="11">
+      <c r="K5" s="11">
         <v>43727</v>
       </c>
-      <c r="I5" s="5">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="5">
+        <v>1996</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5">
         <v>85</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="5">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="11">
         <v>43957</v>
       </c>
-      <c r="G6" s="11">
+      <c r="J6" s="11">
         <v>43628</v>
       </c>
-      <c r="H6" s="11">
+      <c r="K6" s="11">
         <v>43752</v>
       </c>
-      <c r="I6" s="5">
-        <v>16</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>51</v>
+      <c r="C7" s="5">
+        <v>2004</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="5">
+        <v>86</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="11">
+      <c r="K7" s="11">
         <v>44098</v>
       </c>
-      <c r="I7" s="5">
-        <v>86</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="5">
+        <v>1998</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5">
         <v>40</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="5">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="11">
         <v>43588</v>
       </c>
-      <c r="G8" s="11">
+      <c r="J8" s="11">
         <v>43633</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="5">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5">
         <v>220</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="5">
+        <v>95</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="11">
         <v>43586</v>
       </c>
-      <c r="G9" s="11">
+      <c r="J9" s="11">
         <v>43658</v>
       </c>
-      <c r="H9" s="11">
+      <c r="K9" s="11">
         <v>43753</v>
       </c>
-      <c r="I9" s="5">
-        <v>95</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="5">
+        <v>1993</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="5">
+        <v>47</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="5">
-        <v>47</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1992</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5">
         <v>95</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="F11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="5">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="11">
+      <c r="K11" s="11">
         <v>43742</v>
       </c>
-      <c r="I11" s="5">
-        <v>48</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="5">
+      <c r="C12" s="5">
+        <v>2016</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5">
         <v>65</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="11">
+      <c r="J12" s="11">
         <v>43634</v>
       </c>
-      <c r="H12" s="11">
+      <c r="K12" s="11">
         <v>43742</v>
       </c>
-      <c r="I12" s="5">
-        <v>44</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="5">
+        <v>2012</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5">
         <v>62</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="5">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="11">
         <v>43599</v>
       </c>
-      <c r="G13" s="11">
+      <c r="J13" s="11">
         <v>43643</v>
       </c>
-      <c r="H13" s="11">
+      <c r="K13" s="11">
         <v>43742</v>
       </c>
-      <c r="I13" s="5">
-        <v>20</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
